--- a/code/Resultados.xlsx
+++ b/code/Resultados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjuar\Documents\CLIMADA\climada_modules\_local\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLIMADA\climada_modules\_local\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9408"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>prec_con_to</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Escenario Original y Hazard Modificados</t>
+  </si>
+  <si>
+    <t>Escenario Funcion de daño modificada y Hazard Modificados</t>
+  </si>
+  <si>
+    <t>Escenario Funcion de daño modificada y Hazard original</t>
   </si>
 </sst>
 </file>
@@ -395,19 +401,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G36"/>
+  <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -417,7 +423,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -434,7 +440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -454,7 +460,7 @@
         <v>1589538.3487148499</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -474,7 +480,7 @@
         <v>386456.79981809302</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -494,7 +500,7 @@
         <v>387172.24528604897</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -504,7 +510,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -521,7 +527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -541,7 +547,7 @@
         <v>1522164.0882999999</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -561,7 +567,7 @@
         <v>370301.81430000003</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -581,76 +587,241 @@
         <v>367479.34009999997</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>790150.08459999994</v>
+      </c>
+      <c r="D18" s="1">
+        <v>798392.25249999994</v>
+      </c>
+      <c r="E18" s="1">
+        <v>809351.13820000004</v>
+      </c>
+      <c r="F18" s="1">
+        <v>801614.68779999996</v>
+      </c>
+      <c r="G18" s="1">
+        <v>816177.57739999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>192591.27960000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>194593.50520000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>197255.30499999999</v>
+      </c>
+      <c r="F19" s="1">
+        <v>195375.9866</v>
+      </c>
+      <c r="G19" s="1">
+        <v>198914.91329999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>196366.2457</v>
+      </c>
+      <c r="D20" s="1">
+        <v>198416.2738</v>
+      </c>
+      <c r="E20" s="1">
+        <v>201118.35329999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>199210.80859999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>202814.12289999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>796572.40249999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>815321.46970000002</v>
+      </c>
+      <c r="E25" s="1">
+        <v>832551.83640000003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>840431.97030000004</v>
+      </c>
+      <c r="G25" s="1">
+        <v>855181.95819999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>194151.3181</v>
+      </c>
+      <c r="D26" s="1">
+        <v>198849.6323</v>
+      </c>
+      <c r="E26" s="1">
+        <v>203186.8989</v>
+      </c>
+      <c r="F26" s="1">
+        <v>204954.01740000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>208676.7574</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>197961.93100000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>203643.3389</v>
+      </c>
+      <c r="E27" s="1">
+        <v>208665.23740000001</v>
+      </c>
+      <c r="F27" s="1">
+        <v>209873.88620000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>214143.25659999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="3"/>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/code/Resultados.xlsx
+++ b/code/Resultados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLIMADA\climada_modules\_local\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjuar\Documents\CLIMADA\climada_modules\_local\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>prec_con_to</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Escenario Funcion de daño modificada y Hazard original</t>
+  </si>
+  <si>
+    <t>Escenario Funcion de daño modificada y Hazard Modificados Base 2015/RCP4.5 y RCP8.5</t>
   </si>
 </sst>
 </file>
@@ -112,13 +115,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -403,17 +409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -423,7 +429,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -440,7 +446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -460,7 +466,7 @@
         <v>1589538.3487148499</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -480,7 +486,7 @@
         <v>386456.79981809302</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -500,7 +506,7 @@
         <v>387172.24528604897</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
@@ -510,7 +516,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>3</v>
       </c>
@@ -527,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -547,7 +553,7 @@
         <v>1522164.0882999999</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>2</v>
       </c>
@@ -567,7 +573,7 @@
         <v>370301.81430000003</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>1</v>
       </c>
@@ -587,14 +593,14 @@
         <v>367479.34009999997</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
@@ -604,7 +610,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" t="s">
         <v>3</v>
@@ -622,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -642,7 +648,7 @@
         <v>816177.57739999995</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>2</v>
       </c>
@@ -662,7 +668,7 @@
         <v>198914.91329999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -682,13 +688,13 @@
         <v>202814.12289999999</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
@@ -698,7 +704,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" t="s">
         <v>3</v>
@@ -716,7 +722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -736,7 +742,7 @@
         <v>855181.95819999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -756,7 +762,7 @@
         <v>208676.7574</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -776,7 +782,7 @@
         <v>214143.25659999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -784,7 +790,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -792,36 +798,115 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>970184.2</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1479486.93</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1639835.38</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1486352.45</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1526466.87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5">
+        <v>373009.91999999998</v>
+      </c>
+      <c r="D33" s="5">
+        <v>575496.21</v>
+      </c>
+      <c r="E33" s="5">
+        <v>607547.41</v>
+      </c>
+      <c r="F33" s="5">
+        <v>577175.39</v>
+      </c>
+      <c r="G33" s="5">
+        <v>572793.34</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>232057.28</v>
+      </c>
+      <c r="D34" s="5">
+        <v>362493.03</v>
+      </c>
+      <c r="E34" s="5">
+        <v>403983.87</v>
+      </c>
+      <c r="F34" s="5">
+        <v>363989.13</v>
+      </c>
+      <c r="G34" s="5">
+        <v>377565.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B30:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/code/Resultados.xlsx
+++ b/code/Resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="14">
   <si>
     <t>prec_con_to</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Escenario Funcion de daño modificada y Hazard Modificados Base 2015/RCP4.5 y RCP8.5</t>
+  </si>
+  <si>
+    <t>Modificados 15/11/2016</t>
   </si>
 </sst>
 </file>
@@ -88,18 +91,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,16 +112,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -407,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G37"/>
+  <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,63 +826,63 @@
       <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>970184.2</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>1479486.93</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="3">
         <v>1639835.38</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <v>1486352.45</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>1526466.87</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>373009.91999999998</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>575496.21</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>607547.41</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <v>577175.39</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>572793.34</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>232057.28</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>362493.03</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="3">
         <v>403983.87</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <v>363989.13</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>377565.25</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -894,14 +890,103 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>970184.2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1223925.17</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1289938.81</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1121494.6100000001</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1239262.27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>373009.91999999998</v>
+      </c>
+      <c r="D40" s="3">
+        <v>475977.35</v>
+      </c>
+      <c r="E40" s="3">
+        <v>495890.12</v>
+      </c>
+      <c r="F40" s="3">
+        <v>439979.81</v>
+      </c>
+      <c r="G40" s="3">
+        <v>479966.8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>232057.28</v>
+      </c>
+      <c r="D41" s="3">
+        <v>297673.05</v>
+      </c>
+      <c r="E41" s="3">
+        <v>314168.36</v>
+      </c>
+      <c r="F41" s="3">
+        <v>273226.75</v>
+      </c>
+      <c r="G41" s="3">
+        <v>302877.53999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B37:G37"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B16:G16"/>
